--- a/media/monolit_download_fiz.xlsx
+++ b/media/monolit_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010258B-4C32-E745-BE35-5EAB4C1D997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2840A3D-BB87-1543-9BBA-E72EF8F6C17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="1740" windowWidth="27840" windowHeight="16740" xr2:uid="{392D9F8D-AFB5-7E47-9560-7FC7F181A4ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Аубекеров Р.Х.</t>
-  </si>
-  <si>
-    <t>АКТ сверки по юридическим лицам за июнь 2024г.</t>
   </si>
 </sst>
 </file>
@@ -326,13 +323,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -652,7 +649,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +670,7 @@
     <row r="1" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11"/>
@@ -683,13 +680,13 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -704,18 +701,18 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="11"/>
@@ -725,13 +722,13 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
@@ -787,23 +784,21 @@
       <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
@@ -822,7 +817,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="319" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="290" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1867,7 @@
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
